--- a/documentation/build_orders/zerg/two_base_roach_timing.xlsx
+++ b/documentation/build_orders/zerg/two_base_roach_timing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RTSanalytics\documentation\build_orders\zerg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABBAF5-B953-43C7-A4A5-4CFC7F8B956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE74B1-EDED-4CC3-AA89-E7A93A2AC3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8265" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20505" windowHeight="12945" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,21 +458,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -500,49 +500,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>48</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>70</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>74</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -550,27 +536,27 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>113</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>122</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -584,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -598,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -612,35 +598,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>163</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>194</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -654,105 +640,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>198</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>206</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>234</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>235</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>240</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>255</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -766,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -780,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -794,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -808,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -822,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -836,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -844,27 +830,27 @@
         <v>16</v>
       </c>
       <c r="C27">
+        <v>255</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
         <v>261</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>286</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -875,6 +861,20 @@
         <v>286</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>286</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
     </row>

--- a/documentation/build_orders/zerg/two_base_roach_timing.xlsx
+++ b/documentation/build_orders/zerg/two_base_roach_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RTSanalytics\documentation\build_orders\zerg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE74B1-EDED-4CC3-AA89-E7A93A2AC3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6994D2-6C07-4203-8314-B140895262A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="20505" windowHeight="12945" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>Unit_Type</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D30"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -500,6 +500,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
